--- a/Advance Ui/Demo Excel.xlsx
+++ b/Advance Ui/Demo Excel.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +405,9 @@
       <c r="C2">
         <v>1000</v>
       </c>
+      <c r="D2">
+        <v>816900</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -416,6 +419,9 @@
       <c r="C3">
         <v>100</v>
       </c>
+      <c r="D3">
+        <v>816900</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -427,6 +433,9 @@
       <c r="C4">
         <v>50</v>
       </c>
+      <c r="D4">
+        <v>816901</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -438,6 +447,9 @@
       <c r="C5">
         <v>599</v>
       </c>
+      <c r="D5">
+        <v>816902</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -448,6 +460,9 @@
       </c>
       <c r="C6">
         <v>700</v>
+      </c>
+      <c r="D6">
+        <v>816903</v>
       </c>
     </row>
   </sheetData>
